--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376546.9572276622</v>
+        <v>373308.7577998815</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221765</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19492207.60956402</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901774.857294663</v>
+        <v>5117112.456859927</v>
       </c>
     </row>
     <row r="11">
@@ -668,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.91618947337665</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="G5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -984,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1066,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="H7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1221,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>34.11888750173132</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -1415,16 +1417,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>16.93162886246721</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1458,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>39.58387696184059</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H12" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1582,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V13" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X13" t="n">
-        <v>39.58387696184059</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="Y13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,25 +1612,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>26.92232807701203</v>
       </c>
       <c r="E14" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1692,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.58387696184059</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1807,10 +1809,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>38.12502610536669</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>44.13217237922859</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2002,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="20">
@@ -2078,26 +2080,26 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
@@ -2135,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>96.15670189061368</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2214,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>145.5147652547678</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,22 +2362,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>9.73723617201896</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.89109712599216</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>90.91642501047011</v>
       </c>
     </row>
     <row r="25">
@@ -2558,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>83.12218148371484</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1.197928092376224</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2691,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2752,19 +2754,19 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2792,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2877,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2889,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2934,7 +2936,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2989,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,26 +3028,26 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3120,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>36.43923176655773</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>9.894394903258249</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3187,67 +3189,67 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3311,19 +3313,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
     </row>
     <row r="36">
@@ -3345,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.4961370259795</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3399,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>193.5189918519206</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>19.7279353865638</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -3545,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>9.73723617201896</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3585,10 +3587,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>113.2585068133139</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>63.88882306452221</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3642,13 +3644,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3679,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3752,16 +3754,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="X41" t="n">
-        <v>208.2792470398066</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>89.29749682216323</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,16 +3833,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>106.6166861190077</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3876,10 +3878,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3898,73 +3900,73 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>34.86547882798917</v>
+        <v>164.4530035161876</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>39.58387696184059</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4141,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>39.58387696184059</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>135.1878417126385</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>95.20412760976917</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>55.22041350689989</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L2" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M2" t="n">
-        <v>120.7308247336138</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N2" t="n">
-        <v>158.3355078473624</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O2" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U2" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V2" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W2" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X2" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F3" t="n">
-        <v>123.8719851183408</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G3" t="n">
-        <v>83.88827101547153</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M3" t="n">
-        <v>3.166710156947247</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H4" t="n">
-        <v>3.166710156947247</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="I4" t="n">
-        <v>3.166710156947247</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F5" t="n">
-        <v>135.1878417126385</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G5" t="n">
-        <v>95.20412760976917</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H5" t="n">
-        <v>55.22041350689989</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I5" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F6" t="n">
-        <v>123.8719851183408</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G6" t="n">
-        <v>83.88827101547153</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H6" t="n">
-        <v>43.90455691260225</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>3.166710156947247</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="H7" t="n">
-        <v>93.21247408113457</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="I7" t="n">
-        <v>53.22875997826529</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="J7" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>120.7308247336138</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>120.7308247336138</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F9" t="n">
-        <v>123.8719851183408</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G9" t="n">
-        <v>83.88827101547153</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M9" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N9" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O9" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>105.6285745504463</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R10" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>108.260178376266</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="C11" t="n">
-        <v>108.260178376266</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="D11" t="n">
-        <v>108.260178376266</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="E11" t="n">
-        <v>108.260178376266</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="F11" t="n">
-        <v>108.260178376266</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="G11" t="n">
-        <v>95.20412760976917</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H11" t="n">
-        <v>55.22041350689989</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I11" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S11" t="n">
-        <v>108.260178376266</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T11" t="n">
-        <v>108.260178376266</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="U11" t="n">
-        <v>108.260178376266</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="V11" t="n">
-        <v>108.260178376266</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="W11" t="n">
-        <v>108.260178376266</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="X11" t="n">
-        <v>108.260178376266</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="Y11" t="n">
-        <v>108.260178376266</v>
+        <v>15.60056303742164</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F12" t="n">
-        <v>118.3517937444931</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G12" t="n">
-        <v>78.36807964162378</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H12" t="n">
-        <v>43.90455691260225</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M12" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N12" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O12" t="n">
-        <v>158.3355078473624</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U13" t="n">
-        <v>133.1961881840039</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="V13" t="n">
-        <v>123.1178524655551</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="W13" t="n">
-        <v>83.13413836268582</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="X13" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C14" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D14" t="n">
-        <v>118.3517937444931</v>
+        <v>104.756466833843</v>
       </c>
       <c r="E14" t="n">
-        <v>83.13413836268582</v>
+        <v>104.756466833843</v>
       </c>
       <c r="F14" t="n">
-        <v>43.15042425981653</v>
+        <v>104.756466833843</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M14" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W14" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X14" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y14" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M15" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="C16" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="D16" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="E16" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="F16" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="G16" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="H16" t="n">
-        <v>105.6285745504463</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="I16" t="n">
-        <v>65.64486044757699</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R16" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S16" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="T16" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="U16" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="V16" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="W16" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="X16" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>131.9507376187037</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>131.9507376187037</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>131.9507376187037</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>131.9507376187037</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>87.37278572049297</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>87.37278572049297</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>87.37278572049297</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>87.37278572049297</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>87.37278572049297</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>48.8626583413347</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>90.91227510121089</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M18" t="n">
-        <v>90.91227510121089</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5785,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W20" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="V20" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="W20" t="n">
-        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
         <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>116.4091248179033</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5837,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5862,19 +5864,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>817.0725441421839</v>
       </c>
       <c r="V21" t="n">
-        <v>735.8335372470253</v>
+        <v>817.0725441421839</v>
       </c>
       <c r="W21" t="n">
-        <v>492.3847606029253</v>
+        <v>573.6237674980839</v>
       </c>
       <c r="X21" t="n">
-        <v>492.3847606029253</v>
+        <v>365.7722672925511</v>
       </c>
       <c r="Y21" t="n">
-        <v>284.6244618379714</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>132.7447050367114</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T23" t="n">
-        <v>376.1934816808115</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U23" t="n">
-        <v>376.1934816808115</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V23" t="n">
-        <v>376.1934816808115</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W23" t="n">
-        <v>376.1934816808115</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X23" t="n">
-        <v>376.1934816808115</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y23" t="n">
-        <v>376.1934816808115</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6069,16 +6071,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
+        <v>487.8483949674443</v>
+      </c>
+      <c r="N24" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N24" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V24" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W24" t="n">
-        <v>492.3847606029253</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X24" t="n">
-        <v>284.5332603973924</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="Y24" t="n">
-        <v>284.5332603973924</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>21.24530413913604</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6339,16 +6341,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>485.4562706347935</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>485.4562706347935</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y27" t="n">
-        <v>277.6959718698396</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="28">
@@ -6400,16 +6402,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
         <v>19.28114311021272</v>
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49.38115216564972</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C30" t="n">
-        <v>49.38115216564972</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D30" t="n">
-        <v>49.38115216564972</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E30" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X30" t="n">
-        <v>49.38115216564972</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.38115216564972</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
         <v>19.28114311021272</v>
@@ -6637,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F32" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C32" t="n">
+      <c r="G32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6722,25 +6724,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
         <v>506.1786963984129</v>
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>380.2300195200815</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="C33" t="n">
-        <v>205.7769902389545</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D33" t="n">
-        <v>56.84258057770322</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E33" t="n">
-        <v>56.84258057770322</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F33" t="n">
-        <v>56.84258057770322</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G33" t="n">
-        <v>56.84258057770322</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H33" t="n">
-        <v>56.84258057770322</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6786,43 +6788,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="X33" t="n">
-        <v>756.2056553051034</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="Y33" t="n">
-        <v>548.4453565401495</v>
+        <v>249.0657303232264</v>
       </c>
     </row>
     <row r="34">
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
         <v>829.5248650203655</v>
@@ -6895,13 +6897,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>517.4848137278872</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>274.0360370837871</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>500.6814290152826</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C36" t="n">
-        <v>327.4530077769195</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D36" t="n">
         <v>178.5185981156682</v>
@@ -7017,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>500.6814290152826</v>
+        <v>768.5834263672821</v>
       </c>
       <c r="X36" t="n">
-        <v>500.6814290152826</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="Y36" t="n">
-        <v>500.6814290152826</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="37">
@@ -7117,7 +7119,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
         <v>19.28114311021272</v>
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>475.3318284112885</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C38" t="n">
-        <v>231.8830517671884</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D38" t="n">
-        <v>231.8830517671884</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E38" t="n">
-        <v>231.8830517671884</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F38" t="n">
-        <v>231.8830517671884</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H38" t="n">
         <v>231.8830517671884</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>944.1299480494607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>944.1299480494607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V38" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W38" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X38" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y38" t="n">
-        <v>475.3318284112885</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7260,43 +7262,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>899.5229907989976</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>497.8820279860555</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>262.7299197543128</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>292.9211302503287</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>496.626357174339</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C41" t="n">
-        <v>496.626357174339</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D41" t="n">
-        <v>496.626357174339</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>496.626357174339</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>496.626357174339</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>257.7718183255803</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>945.8639738410842</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X41" t="n">
-        <v>735.4808960230977</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y41" t="n">
-        <v>735.4808960230977</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>331.0337992073036</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="C42" t="n">
-        <v>331.0337992073036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>331.0337992073036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>331.0337992073036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>331.0337992073036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>223.3401768648716</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>109.9710412724509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>19.6714121296074</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>18.91727947682168</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>248.8803853451708</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M42" t="n">
-        <v>482.9817188708391</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>529.119162702065</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>763.2204962277333</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>945.8639738410842</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W42" t="n">
-        <v>707.0094349923255</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X42" t="n">
-        <v>707.0094349923255</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y42" t="n">
-        <v>499.2491362273716</v>
+        <v>277.6959718698396</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>838.6458083585264</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>877.8338465507486</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>921.5246972061849</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43.15042425981653</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C44" t="n">
-        <v>3.166710156947247</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.166710156947247</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>42.35474834916943</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>81.54278654139161</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>120.7308247336138</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>158.3355078473624</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>148.2438924791353</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>148.2438924791353</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>148.2438924791353</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>148.2438924791353</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>148.2438924791353</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V44" t="n">
-        <v>148.2438924791353</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W44" t="n">
-        <v>123.1178524655551</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X44" t="n">
-        <v>123.1178524655551</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y44" t="n">
-        <v>83.13413836268582</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>38.38436553875449</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>42.35474834916943</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>42.35474834916943</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>42.35474834916943</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>79.95943146291799</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>78.36807964162378</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>78.36807964162378</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>38.38436553875449</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>83.13413836268582</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>267.3975919943167</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>268.0827398194126</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>269.2175241529953</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M9" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>268.9969405584315</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8772,22 +8774,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N12" t="n">
-        <v>170.9255890451739</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>268.9969405584315</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O14" t="n">
         <v>230.0982114216867</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1382567417148</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,13 +9485,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,7 +9971,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10434,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10908,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>431.5041213350942</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N42" t="n">
-        <v>177.9451907007331</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>269.9301101891133</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>268.0827398194126</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1382567417148</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>180.5807728421703</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22556,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>383.9598562683348</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22601,16 +22603,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22635,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>187.8163559756081</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22720,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>21.47904137820059</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,19 +22746,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22793,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>383.9598562683348</v>
+        <v>368.0044283100869</v>
       </c>
       <c r="G5" t="n">
-        <v>375.7188605532945</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
-        <v>170.8920126085653</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22872,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>110.9503248916526</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>50.52501541979053</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.2005289107765</v>
       </c>
       <c r="H7" t="n">
-        <v>122.643295545599</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23030,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>372.0105669137222</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23066,16 +23068,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>110.9975005095251</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23109,16 +23111,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>110.9503248916526</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23194,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>137.6566757453241</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,13 +23223,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>402.3772472563032</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>234.4140240453693</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23346,16 +23348,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>105.4853354315433</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H12" t="n">
-        <v>78.11655673476514</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23470,19 +23472,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V13" t="n">
-        <v>242.1600909625637</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>246.9391213747504</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X13" t="n">
-        <v>186.1257784271966</v>
+        <v>183.5084732972328</v>
       </c>
       <c r="Y13" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23498,25 +23500,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>327.7607135436709</v>
       </c>
       <c r="E14" t="n">
-        <v>347.0648912442726</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.7188605532945</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23580,16 +23582,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>122.7796016274118</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23622,16 +23624,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23668,13 +23670,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>137.6566757453241</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>73.42748985075127</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>300.6031846841426</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>74.11041813112978</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>45.26446047218649</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23890,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.1146487193992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>102.3017902673406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>144.630597575249</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.9909793584588</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.4524809728662</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24023,19 +24025,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>76.55179709770206</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24060,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24102,7 +24104,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>80.42661682620704</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24113,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>252.9439654637738</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24224,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>199.2828334142264</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>76.64208652387518</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24333,7 +24335,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24351,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>114.7662707668343</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.6450125965693</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24446,22 +24448,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>352.8735455476468</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24488,19 +24490,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>128.6853625704253</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24519,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>83.4110021661525</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>156.4471523630247</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24579,7 +24581,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24640,19 +24642,19 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>405.0665496686753</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24737,16 +24739,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24765,7 +24767,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>122.2378149818625</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24777,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>60.3442152127903</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,7 +24812,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24822,7 +24824,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24877,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24962,7 +24964,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24974,16 +24976,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>307.3148329761767</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>52.95740108485735</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>222.906192246167</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25199,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>316.5592023139553</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>333.8123701683061</v>
       </c>
     </row>
     <row r="36">
@@ -25233,10 +25235,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>1.212361962336246</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25287,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>58.17599130899902</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25357,10 +25359,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25406,7 +25408,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>319.7468667292034</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25433,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>140.1318817691307</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25473,10 +25475,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>34.1865587513249</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>36.26901108812093</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25530,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25567,10 +25569,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25640,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>178.836744054864</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0088086554961</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>148.9048724285834</v>
       </c>
       <c r="X41" t="n">
-        <v>161.4518536386624</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>83.41100216615251</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,16 +25721,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>30.72683104420298</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25764,10 +25766,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.14996470164</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>325.689014809167</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25922,16 +25924,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>324.3661891039686</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>137.8430201603266</v>
+        <v>8.255495472128104</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26004,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>166.0988188154638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26029,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>136.4564102853049</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>105.8371710610907</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770131</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770132</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770134</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495310.3319091872</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355279.4796042946</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65132.5396826126</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="C2" t="n">
-        <v>65132.5396826126</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="D2" t="n">
-        <v>65132.53968261261</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="E2" t="n">
-        <v>65132.53968261261</v>
+        <v>65754.15294315929</v>
       </c>
       <c r="F2" t="n">
-        <v>65132.5396826126</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="G2" t="n">
-        <v>65754.15294315929</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="H2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="K2" t="n">
         <v>91388.3698922328</v>
@@ -26344,16 +26346,16 @@
         <v>91388.36989223282</v>
       </c>
       <c r="M2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="N2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="O2" t="n">
-        <v>90796.17800832074</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="P2" t="n">
-        <v>65132.53968261261</v>
+        <v>91388.36989223282</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5965.63236844941</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="C4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="D4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="E4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="F4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="G4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
@@ -26442,22 +26444,22 @@
         <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8488.886639836433</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>5965.632368449411</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9867.139995800368</v>
+        <v>8626.861344417164</v>
       </c>
       <c r="C6" t="n">
-        <v>23132.60759488328</v>
+        <v>23416.56734866138</v>
       </c>
       <c r="D6" t="n">
-        <v>23132.60759488329</v>
+        <v>23416.56734866137</v>
       </c>
       <c r="E6" t="n">
-        <v>56760.20759488329</v>
+        <v>57044.16734866135</v>
       </c>
       <c r="F6" t="n">
-        <v>56760.20759488328</v>
+        <v>57044.16734866137</v>
       </c>
       <c r="G6" t="n">
-        <v>55797.54779918657</v>
+        <v>14225.15515865643</v>
       </c>
       <c r="H6" t="n">
-        <v>15067.0230888037</v>
+        <v>68187.59005912874</v>
       </c>
       <c r="I6" t="n">
-        <v>68187.59005912874</v>
+        <v>68187.59005912876</v>
       </c>
       <c r="J6" t="n">
-        <v>57830.70615532494</v>
+        <v>56640.67194913783</v>
       </c>
       <c r="K6" t="n">
         <v>68187.59005912874</v>
@@ -26552,16 +26554,16 @@
         <v>68187.59005912875</v>
       </c>
       <c r="M6" t="n">
-        <v>68187.59005912876</v>
+        <v>68187.59005912872</v>
       </c>
       <c r="N6" t="n">
         <v>68187.59005912874</v>
       </c>
       <c r="O6" t="n">
-        <v>67930.15896609983</v>
+        <v>20807.71184166495</v>
       </c>
       <c r="P6" t="n">
-        <v>56760.20759488329</v>
+        <v>68187.59005912875</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,7 +36691,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>201.1578881078215</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N42" t="n">
-        <v>46.60347861739982</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>39.58387696184059</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>37.98452839772582</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>39.58387696184059</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>37.98452839772582</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373308.7577998815</v>
+        <v>267779.7902310984</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782366</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956402</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117112.456859927</v>
+        <v>5764697.373081758</v>
       </c>
     </row>
     <row r="11">
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>38.12502610536669</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>90.91642501047011</v>
       </c>
     </row>
     <row r="4">
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>44.13217237922859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>138.0259534842391</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>38.87161743162455</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>44.13217237922859</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>85.31372784089217</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1332,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>16.93162886246721</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
     </row>
     <row r="12">
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>44.13217237922859</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="H12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,16 +1621,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>44.13217237922859</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>44.13217237922859</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>32.02729053745298</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>38.87161743162455</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>44.13217237922859</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,31 +1888,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>62.43486741948623</v>
       </c>
     </row>
     <row r="19">
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>145.5147652547678</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.73723617201896</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -2380,7 +2380,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>90.91642501047011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1.197928092376224</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2803,55 +2803,55 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2933,10 +2933,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>125.7440854491578</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2952,67 +2952,67 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,58 +3040,58 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
-        <v>212.285385643442</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3116,22 +3116,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>9.894394903258249</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>193.5189918519206</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>19.7279353865638</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>113.2585068133139</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>3.545732946469277</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3681,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,31 +3739,31 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,31 +3784,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>89.29749682216323</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3884,10 +3884,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="43">
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,73 +3976,73 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>218.2545356023573</v>
+      </c>
+      <c r="X44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D44" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>164.4530035161876</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="46">
@@ -4146,46 +4146,46 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>92.68647758675968</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W2" t="n">
-        <v>48.10852568854899</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X2" t="n">
-        <v>3.530573790338288</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>87.37278572049297</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>42.79483382228227</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>4.284706443124001</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V3" t="n">
-        <v>4.284706443124001</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W3" t="n">
-        <v>4.284706443124001</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X3" t="n">
-        <v>4.284706443124001</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="D6" t="n">
-        <v>176.5286895169144</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E6" t="n">
-        <v>176.5286895169144</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F6" t="n">
-        <v>131.9507376187037</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
-        <v>87.37278572049297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>622.4504058348173</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>622.4504058348173</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>622.4504058348173</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>622.4504058348173</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>622.4504058348173</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>137.2644294849704</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>92.68647758675968</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>48.10852568854899</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>3.530573790338288</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>3.530573790338288</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>3.530573790338288</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>3.530573790338288</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5286895169144</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5286895169144</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D9" t="n">
-        <v>176.5286895169144</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>138.0185621377561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>93.44061023954541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>89.14698820604177</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>89.14698820604177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5286895169144</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.60056303742164</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>15.60056303742164</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>15.60056303742164</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>15.60056303742164</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>15.60056303742164</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>121.8591222504766</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>77.28117035226589</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>32.70321845405519</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U11" t="n">
-        <v>15.60056303742164</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V11" t="n">
-        <v>15.60056303742164</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W11" t="n">
-        <v>15.60056303742164</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X11" t="n">
-        <v>15.60056303742164</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.60056303742164</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C12" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D12" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E12" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F12" t="n">
-        <v>138.0185621377561</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G12" t="n">
-        <v>93.44061023954541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>45.45613755060546</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>89.14698820604177</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>89.14698820604177</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>176.5286895169144</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>176.5286895169144</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>176.5286895169144</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>90.73598234693722</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>90.73598234693722</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.9507376187037</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C14" t="n">
-        <v>131.9507376187037</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D14" t="n">
-        <v>104.756466833843</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E14" t="n">
-        <v>104.756466833843</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F14" t="n">
-        <v>104.756466833843</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G14" t="n">
-        <v>60.17851493563234</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H14" t="n">
-        <v>60.17851493563234</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I14" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>131.9507376187037</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>131.9507376187037</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>131.9507376187037</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V14" t="n">
-        <v>131.9507376187037</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W14" t="n">
-        <v>131.9507376187037</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X14" t="n">
-        <v>131.9507376187037</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.9507376187037</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>210.869396638348</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>210.869396638348</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>210.869396638348</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>51.63194163289251</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>51.63194163289251</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>51.63194163289251</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>51.63194163289251</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>132.8378388614781</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>137.2644294849704</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>92.68647758675968</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U15" t="n">
-        <v>48.10852568854899</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V15" t="n">
-        <v>3.530573790338288</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W15" t="n">
-        <v>3.530573790338288</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X15" t="n">
-        <v>3.530573790338288</v>
+        <v>210.869396638348</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.530573790338288</v>
+        <v>210.869396638348</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>234.810827406191</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5700,22 +5700,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.7108255783361</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X20" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5864,19 +5864,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>817.0725441421839</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>817.0725441421839</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>573.6237674980839</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>365.7722672925511</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>158.0119685275972</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>944.1299480494607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>475.3318284112885</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V23" t="n">
-        <v>231.8830517671884</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>562.4161926976942</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>318.9674160535941</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>111.1159158480613</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D26" t="n">
-        <v>962.2293816994886</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E26" t="n">
-        <v>718.7806050553886</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F26" t="n">
-        <v>475.3318284112885</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>344.6327430815143</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C27" t="n">
-        <v>170.1797138003873</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D27" t="n">
-        <v>21.24530413913604</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,19 +6311,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X27" t="n">
-        <v>720.6083788665362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y27" t="n">
-        <v>512.8480801015824</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="28">
@@ -6414,13 +6414,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6493,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.04605772994853</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C30" t="n">
-        <v>55.04605772994853</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D30" t="n">
-        <v>55.04605772994853</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6545,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>55.04605772994853</v>
+        <v>373.6672012888606</v>
       </c>
       <c r="X30" t="n">
-        <v>55.04605772994853</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.04605772994853</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
         <v>19.28114311021272</v>
@@ -6660,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>249.0657303232264</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C33" t="n">
-        <v>249.0657303232264</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D33" t="n">
-        <v>249.0657303232264</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E33" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,10 +6788,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>249.0657303232264</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>249.0657303232264</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>249.0657303232264</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>249.0657303232264</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V35" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9716273967953</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7022,13 +7022,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>768.5834263672821</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>560.7319261617492</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>352.9716273967953</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7122,25 +7122,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>738.7078125165641</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V38" t="n">
-        <v>738.7078125165641</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W38" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>292.9211302503287</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C39" t="n">
-        <v>292.9211302503287</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D39" t="n">
         <v>178.5185981156682</v>
@@ -7256,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>657.1194829915109</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>421.9673747597683</v>
       </c>
       <c r="W39" t="n">
-        <v>500.6814290152826</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="X39" t="n">
-        <v>500.6814290152826</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y39" t="n">
-        <v>292.9211302503287</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
         <v>19.28114311021272</v>
@@ -7362,22 +7362,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>109.4806348497715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7493,10 +7493,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
         <v>304.2053859195205</v>
@@ -7523,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>485.4562706347935</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>277.6959718698396</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7596,22 +7596,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C44" t="n">
-        <v>82.32787816303323</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>812.6742080953335</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V44" t="n">
-        <v>569.2254314512334</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W44" t="n">
-        <v>569.2254314512334</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X44" t="n">
-        <v>569.2254314512334</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y44" t="n">
-        <v>569.2254314512334</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>344.6327430815143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
         <v>19.28114311021272</v>
@@ -7730,19 +7730,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7833,25 +7833,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>184.4830882253185</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>229.6373335557741</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9959,10 +9959,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9974,7 +9974,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10436,13 +10436,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10670,7 +10670,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10679,7 +10679,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>303.312501347746</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,13 +11387,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O45" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22603,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>212.474035476212</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>283.6200860909063</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="3">
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>187.8163559756081</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>114.7662707668343</v>
       </c>
     </row>
     <row r="4">
@@ -22722,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>21.47904137820059</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>368.0044283100869</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22837,10 +22837,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9370400141553</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>50.52501541979053</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,10 +22916,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>87.91542859673575</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>304.5378186490225</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>110.9975005095251</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8878972070167</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,7 +23150,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>86.36944326294565</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23220,16 +23220,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>234.4140240453693</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>166.0248129136286</v>
       </c>
     </row>
     <row r="12">
@@ -23348,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>93.21134478398204</v>
+        <v>107.544508198328</v>
       </c>
       <c r="H12" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23393,16 +23393,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23466,22 +23466,22 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>183.5084732972328</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7607135436709</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>166.3437171911773</v>
+        <v>108.137662477717</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8878972070167</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23582,7 +23582,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23594,7 +23594,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>57.36934231396209</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>132.8115536722133</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>188.6684147701967</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23676,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>73.42748985075127</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,31 +23776,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>289.396393662649</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>143.2478283578181</v>
       </c>
     </row>
     <row r="19">
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>294.9288839697323</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24104,10 +24104,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>80.42661682620704</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H22" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24226,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>199.2828334142264</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24335,7 +24335,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24344,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>114.7662707668343</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24448,22 +24448,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>352.8735455476468</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>302.9738112079013</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24490,13 +24490,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24521,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>156.4471523630247</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>109.6619469198454</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24575,13 +24575,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24590,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24654,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24691,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>405.0665496686753</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24733,13 +24733,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24767,10 +24767,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>122.2378149818625</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24812,7 +24812,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24821,10 +24821,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>125.9508977117618</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24970,16 +24970,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25004,22 +25004,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>127.8460714905183</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>222.906192246167</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,16 +25156,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>333.8123701683061</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25235,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25286,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>58.17599130899902</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25396,7 +25396,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25408,10 +25408,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>319.7468667292034</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25475,7 +25475,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>34.1865587513249</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>222.3956491345055</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25569,10 +25569,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,31 +25672,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>181.0016451065613</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>148.9048724285834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>83.41100216615251</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25763,7 +25763,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="43">
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25882,13 +25882,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,25 +25912,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>130.9864331150557</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>8.255495472128104</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -26000,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358671.2447770131</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358671.2447770132</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358671.2447770134</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="C2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="D2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="E2" t="n">
-        <v>65754.15294315929</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="F2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="G2" t="n">
+        <v>91388.36989223285</v>
+      </c>
+      <c r="H2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="I2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="H2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="K2" t="n">
         <v>91388.36989223283</v>
-      </c>
-      <c r="J2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="K2" t="n">
-        <v>91388.3698922328</v>
       </c>
       <c r="L2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="M2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="P2" t="n">
         <v>91388.36989223282</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="E4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8626.861344417164</v>
+        <v>-58427.45209245945</v>
       </c>
       <c r="C6" t="n">
-        <v>23416.56734866138</v>
+        <v>22341.97943908826</v>
       </c>
       <c r="D6" t="n">
-        <v>23416.56734866137</v>
+        <v>22341.97943908832</v>
       </c>
       <c r="E6" t="n">
-        <v>57044.16734866135</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="F6" t="n">
-        <v>57044.16734866137</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="G6" t="n">
-        <v>14225.15515865643</v>
+        <v>55969.57943908832</v>
       </c>
       <c r="H6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="I6" t="n">
-        <v>68187.59005912876</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="J6" t="n">
-        <v>56640.67194913783</v>
+        <v>-7090.363160017951</v>
       </c>
       <c r="K6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.5794390883</v>
       </c>
       <c r="L6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="M6" t="n">
-        <v>68187.59005912872</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="N6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="O6" t="n">
-        <v>20807.71184166495</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="P6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908829</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>42.34905430330018</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N14" t="n">
-        <v>42.34905430330016</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>91.0829537758999</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36679,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37390,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37399,7 +37399,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>161.1784674257276</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
@@ -38107,13 +38107,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O45" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267779.7902310984</v>
+        <v>361972.0568565575</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5764697.373081758</v>
+        <v>5117112.456859927</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>90.91642501047011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="T5" t="n">
-        <v>212.285385643442</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="6">
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>138.0259534842391</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
     </row>
     <row r="7">
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S9" t="n">
-        <v>85.31372784089217</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="Y11" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
     </row>
     <row r="15">
@@ -1694,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I15" t="n">
-        <v>32.02729053745298</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1745,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>80.33470701582003</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
         <v>241.0142888776591</v>
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>13.16315991169311</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>62.43486741948623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>70.34400780127524</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>182.7004482653351</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2253,46 +2253,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>23.17871577922039</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2490,49 +2490,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2699,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>230.2038249569697</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>125.7440854491578</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>220.2131257424249</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3198,49 +3198,49 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -3319,13 +3319,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="V35" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3410,7 +3410,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3435,58 +3435,58 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,20 +3505,20 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>220.2131257424249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3.545732946469277</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>164.4530035161875</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3754,16 +3754,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3830,19 +3830,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>62.48291670214915</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>218.2545356023573</v>
+        <v>68.3854176612075</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X2" t="n">
-        <v>233.7108255783361</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U3" t="n">
-        <v>562.4161926976942</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V3" t="n">
-        <v>562.4161926976942</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W3" t="n">
-        <v>318.9674160535941</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X3" t="n">
-        <v>111.1159158480613</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U5" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V5" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W5" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>454.2350688147492</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>454.2350688147492</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>305.3006591534979</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>305.3006591534979</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>622.4504058348173</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>622.4504058348173</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W6" t="n">
-        <v>622.4504058348173</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X6" t="n">
-        <v>622.4504058348173</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y6" t="n">
-        <v>622.4504058348173</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.6530896684844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6530896684844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>122.6530896684844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>122.6530896684844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W8" t="n">
-        <v>366.1018663125844</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X8" t="n">
-        <v>366.1018663125844</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.6530896684844</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>501.9060370580465</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C9" t="n">
-        <v>327.4530077769195</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D9" t="n">
-        <v>178.5185981156682</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>877.8816728430684</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T9" t="n">
-        <v>877.8816728430684</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U9" t="n">
-        <v>877.8816728430684</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V9" t="n">
-        <v>877.8816728430684</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W9" t="n">
-        <v>877.8816728430684</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X9" t="n">
-        <v>877.8816728430684</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y9" t="n">
-        <v>670.1213740781145</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C11" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T11" t="n">
-        <v>728.6161971483371</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U11" t="n">
-        <v>728.6161971483371</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V11" t="n">
-        <v>728.6161971483371</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W11" t="n">
-        <v>728.6161971483371</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X11" t="n">
-        <v>728.6161971483371</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>49.38115216564972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C12" t="n">
-        <v>49.38115216564972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>49.38115216564972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>49.38115216564972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>49.38115216564972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U12" t="n">
-        <v>735.8335372470253</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V12" t="n">
-        <v>500.6814290152826</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W12" t="n">
-        <v>257.2326523711826</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X12" t="n">
-        <v>49.38115216564972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y12" t="n">
-        <v>49.38115216564972</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>122.6530896684844</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C14" t="n">
-        <v>122.6530896684844</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D14" t="n">
-        <v>122.6530896684844</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E14" t="n">
-        <v>122.6530896684844</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F14" t="n">
-        <v>122.6530896684844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G14" t="n">
-        <v>122.6530896684844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>122.6530896684844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U14" t="n">
-        <v>122.6530896684844</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V14" t="n">
-        <v>122.6530896684844</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W14" t="n">
-        <v>122.6530896684844</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X14" t="n">
-        <v>122.6530896684844</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.6530896684844</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>210.869396638348</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C15" t="n">
-        <v>210.869396638348</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D15" t="n">
-        <v>210.869396638348</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E15" t="n">
-        <v>51.63194163289251</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F15" t="n">
-        <v>51.63194163289251</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G15" t="n">
-        <v>51.63194163289251</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H15" t="n">
-        <v>51.63194163289251</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T15" t="n">
-        <v>689.4702815141908</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U15" t="n">
-        <v>689.4702815141908</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V15" t="n">
-        <v>454.3181732824481</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W15" t="n">
-        <v>210.869396638348</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X15" t="n">
-        <v>210.869396638348</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y15" t="n">
-        <v>210.869396638348</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C17" t="n">
         <v>262.7299197543128</v>
@@ -5500,10 +5500,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>587.3248651012614</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>587.3248651012614</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>587.3248651012614</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>587.3248651012614</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F18" t="n">
         <v>19.28114311021272</v>
@@ -5597,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>533.6469426057913</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>533.6469426057913</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W18" t="n">
-        <v>290.1981659616912</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X18" t="n">
-        <v>82.34666575615842</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="19">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>90.33569644483418</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5788,13 +5788,13 @@
         <v>577.2332497330343</v>
       </c>
       <c r="V20" t="n">
-        <v>577.2332497330343</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W20" t="n">
-        <v>577.2332497330343</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X20" t="n">
-        <v>577.2332497330343</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y20" t="n">
         <v>333.7844730889342</v>
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,13 +5840,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5940,22 +5940,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -5986,10 +5986,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>251.810259228364</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6071,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>839.4747818420872</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>611.2511635784762</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>376.0990553467335</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y24" t="n">
-        <v>49.38115216564972</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6180,19 +6180,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>376.1934816808115</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>376.1934816808115</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V26" t="n">
-        <v>376.1934816808115</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W26" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6308,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>55.04605772994853</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>55.04605772994853</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6423,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
         <v>262.7299197543128</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6551,13 +6551,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6581,13 +6581,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>373.6672012888606</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>165.8157010833278</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6660,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6721,19 +6721,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U32" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
         <v>262.7299197543128</v>
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6785,46 +6785,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
         <v>19.28114311021272</v>
@@ -6888,22 +6888,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6958,19 +6958,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U35" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
         <v>262.7299197543128</v>
@@ -7022,40 +7022,40 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>705.7335281915883</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V36" t="n">
-        <v>470.5814199598456</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W36" t="n">
-        <v>227.1326433157456</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X36" t="n">
         <v>19.28114311021272</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7134,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U38" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V38" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7256,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>657.1194829915109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>421.9673747597683</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>178.5185981156682</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>178.5185981156682</v>
+        <v>554.4942339006902</v>
       </c>
       <c r="Y39" t="n">
-        <v>178.5185981156682</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
         <v>19.28114311021272</v>
@@ -7362,22 +7362,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7438,25 +7438,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>577.2332497330343</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U41" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V41" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>425.5489231905453</v>
       </c>
     </row>
     <row r="43">
@@ -7596,7 +7596,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
         <v>19.28114311021272</v>
@@ -7672,22 +7672,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>738.7078125165641</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U44" t="n">
-        <v>738.7078125165641</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V44" t="n">
-        <v>738.7078125165641</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W44" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X44" t="n">
         <v>274.7999090013961</v>
@@ -7730,19 +7730,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>312.04082470182</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>185.8815939223662</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9488,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10199,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10433,13 +10433,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,10 +10670,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10682,10 +10682,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>197.6503338623806</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>371.3463732493024</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22555,16 +22555,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>353.049451855182</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22606,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22631,16 +22631,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>108.5734481330142</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>114.7662707668343</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22707,7 +22707,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>180.1391513691656</v>
       </c>
       <c r="T5" t="n">
-        <v>10.81046392068936</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="6">
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>87.91542859673575</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>166.8110783456798</v>
       </c>
     </row>
     <row r="7">
@@ -22983,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>304.5378186490225</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>127.6615662182428</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23120,7 +23120,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23147,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
-        <v>86.36944326294565</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23226,22 +23226,22 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>285.7325478889088</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,19 +23260,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>340.8501824613893</v>
       </c>
       <c r="Y11" t="n">
-        <v>166.0248129136286</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23351,7 +23351,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>107.544508198328</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23387,22 +23387,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
@@ -23466,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>108.137662477717</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>357.3570204389738</v>
       </c>
     </row>
     <row r="15">
@@ -23582,19 +23582,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>73.36382680487192</v>
       </c>
       <c r="I15" t="n">
-        <v>57.36934231396209</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23633,10 +23633,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23700,13 +23700,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23715,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>224.9192049413549</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,19 +23734,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>312.8473232832599</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>289.396393662649</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>145.2236497783945</v>
@@ -23813,16 +23813,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>159.5453390766226</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>143.2478283578181</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>294.9288839697323</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24028,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>137.4807660112426</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24104,10 +24104,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>50.10013888409014</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,22 +24259,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>119.0371437604433</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>136.7341746849847</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24302,7 +24302,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>176.9860129156012</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>302.9738112079013</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>286.8247010151207</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24533,7 +24533,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>109.6619469198454</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24575,7 +24575,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,10 +24685,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,13 +24733,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>97.54843351316518</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24770,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>125.9508977117618</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24855,7 +24855,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24928,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>171.0109458920165</v>
       </c>
       <c r="V32" t="n">
-        <v>107.53913272771</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25004,7 +25004,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>127.8460714905183</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>70.26853576158743</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25061,10 +25061,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>156.9351659141304</v>
       </c>
       <c r="V35" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>178.8751544832877</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>129.0278429749881</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>222.3956491345055</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>41.31998168728995</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25642,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>181.0016451065613</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25718,19 +25718,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>82.58629569123474</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25836,10 +25836,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25912,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25924,13 +25924,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>130.9864331150557</v>
+        <v>280.8555510562055</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770132</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498541.5625390694</v>
+        <v>358671.2447770132</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770134</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.36989223282</v>
+        <v>65754.15294315934</v>
       </c>
       <c r="C2" t="n">
-        <v>91388.36989223279</v>
+        <v>65754.15294315929</v>
       </c>
       <c r="D2" t="n">
-        <v>91388.36989223285</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="E2" t="n">
-        <v>91388.36989223282</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="F2" t="n">
-        <v>91388.3698922328</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="G2" t="n">
         <v>91388.36989223285</v>
@@ -26334,28 +26334,28 @@
         <v>91388.36989223283</v>
       </c>
       <c r="I2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="J2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="K2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="L2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="M2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="J2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>91388.36989223283</v>
       </c>
-      <c r="L2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>91388.36989223286</v>
+      </c>
+      <c r="P2" t="n">
         <v>91388.36989223283</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="O2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="P2" t="n">
-        <v>91388.36989223282</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="D4" t="n">
-        <v>8547.111069342403</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="F4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58427.45209245945</v>
+        <v>7172.021946512465</v>
       </c>
       <c r="C6" t="n">
-        <v>22341.97943908826</v>
+        <v>21961.72795075664</v>
       </c>
       <c r="D6" t="n">
-        <v>22341.97943908832</v>
+        <v>21961.72795075667</v>
       </c>
       <c r="E6" t="n">
-        <v>55969.57943908829</v>
+        <v>55589.32795075666</v>
       </c>
       <c r="F6" t="n">
-        <v>55969.57943908827</v>
+        <v>55589.32795075665</v>
       </c>
       <c r="G6" t="n">
-        <v>55969.57943908832</v>
+        <v>13003.35409665241</v>
       </c>
       <c r="H6" t="n">
-        <v>55969.57943908829</v>
+        <v>66965.78899712472</v>
       </c>
       <c r="I6" t="n">
-        <v>55969.57943908829</v>
+        <v>66965.78899712469</v>
       </c>
       <c r="J6" t="n">
-        <v>-7090.363160017951</v>
+        <v>55418.8708871338</v>
       </c>
       <c r="K6" t="n">
-        <v>55969.5794390883</v>
+        <v>66965.78899712469</v>
       </c>
       <c r="L6" t="n">
-        <v>55969.57943908829</v>
+        <v>66965.78899712469</v>
       </c>
       <c r="M6" t="n">
-        <v>55969.57943908829</v>
+        <v>66965.78899712471</v>
       </c>
       <c r="N6" t="n">
-        <v>55969.57943908829</v>
+        <v>66965.78899712472</v>
       </c>
       <c r="O6" t="n">
-        <v>55969.57943908829</v>
+        <v>19585.91077966096</v>
       </c>
       <c r="P6" t="n">
-        <v>55969.57943908829</v>
+        <v>66965.78899712472</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>169.9067907798017</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655597</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>43.28534947792182</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37402,10 +37402,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37636,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
